--- a/users.xlsx
+++ b/users.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,17 +484,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Кее</t>
+          <t>Рр</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Кее</t>
+          <t>Пр</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Апр</t>
+          <t>Мр</t>
         </is>
       </c>
     </row>
@@ -726,35 +726,197 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-18 20:02:00</t>
+          <t>2025-10-21 16:56:01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>X0re4ik</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Кристина</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22214405</t>
+          <t>122</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>19.10.2025</t>
+          <t>12.09.2025</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>511246625</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+        <v>785314750</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-10-21 17:01:57</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Кен</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12.09.2925</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>785314750</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-10-21 17:03:44</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Кен</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12.09.2025</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>785314750</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-10-21 17:04:47</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>golmanpolina</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ира</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3445</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.10.2025</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>592453359</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Быстро и понятно</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Не знаю</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Про</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-10-21 17:21:14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Кеп</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>11.09.2025</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>785314750</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-10-21 17:24:47</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Кее</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12.09.2025</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>785314750</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,17 +484,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Рр</t>
+          <t>Про</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Пр</t>
+          <t>Енг</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Мр</t>
+          <t>Енн</t>
         </is>
       </c>
     </row>
@@ -915,6 +915,186 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>785314750</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-10-21 17:46:43</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Кее</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12.09.2025</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>785314750</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-10-22 16:58:04</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Кристина</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12.09.2025</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>785314750</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-10-22 17:22:46</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Прр</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12.09.2025</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>785314750</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-10-22 17:31:58</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Апр</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12.09.2024</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>785314750</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-10-22 17:38:08</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Апр</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>12.09.2025</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>785314750</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-10-22 17:44:26</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Апо</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>12.09.2023</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
         <v>785314750</v>
       </c>
     </row>
